--- a/data/exp_raw/Basis2020126.xlsx
+++ b/data/exp_raw/Basis2020126.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blomerusjm\.julia\environments\WatVal\LifeVal\data\exp_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA22913-2FCA-4DAB-9B46-2E2EA677E4DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47074BDA-F4AB-45DD-B33B-26A425AC3229}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A9C2AE57-0ED9-42B4-9E49-75079AC8A95A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9C2AE57-0ED9-42B4-9E49-75079AC8A95A}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>runno</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>SA85</t>
+  </si>
+  <si>
+    <t>outv</t>
+  </si>
+  <si>
+    <t>outp</t>
+  </si>
+  <si>
+    <t>outp1.csv</t>
+  </si>
+  <si>
+    <t>outp2.csv</t>
   </si>
 </sst>
 </file>
@@ -538,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52A0F44-C1B7-454B-B61E-0EFB69AF87C8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,20 +562,32 @@
     <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00441687-F01A-43D0-9CDE-A695AAE6DD27}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
